--- a/Archive/Code-Vorschlag-16byte.xlsx
+++ b/Archive/Code-Vorschlag-16byte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raoul\Documents\GitHub\remote-party-lights\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20B2C51-293D-4799-9AA1-EC61718DB475}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC4DFBE-98D3-4B00-9170-572BFC30EA66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE6D7B2A-F1B3-4AF0-B9FF-9DE7DB0711DF}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Verwendung</t>
   </si>
   <si>
-    <t>Zeitstempel (in hexadecimal (0-F) in seconds)</t>
-  </si>
-  <si>
     <t>Interval Kommando (via A-Z, 1-9) mit im Receiver vorprogrammierten Verzögerungen in milliseconds</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>0 = kein Interval (Licht Dauer-an)</t>
+  </si>
+  <si>
+    <t>Zeitstempel (in hexadecimal (0000-FFFF) in seconds)</t>
   </si>
 </sst>
 </file>
@@ -208,73 +208,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,282 +592,284 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6DD369-05C2-4970-8B83-E4292A885803}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" t="str">
         <f>SUBSTITUTE(D2,"-","")</f>
         <v>A8C0100FFFFFFFF0</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>13</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>10</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>11</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>12</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>13</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="20"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
